--- a/arrResultsTable.xlsx
+++ b/arrResultsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Documents\GitHub\arrhythmia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C857130B-1926-40B0-B396-3E9BFF6CC7BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA5BC38-1BEB-408B-80A8-2CDA4F009636}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8430" xr2:uid="{4B69C0EE-0560-4993-991A-C215978BE007}"/>
   </bookViews>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -141,11 +141,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,12 +203,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -185,6 +220,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D359C9-E97D-4EB4-84DB-8818F5B90C4F}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,55 +559,55 @@
     <col min="4" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
@@ -570,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -593,7 +638,7 @@
         <v>0.84560000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -616,7 +661,7 @@
         <v>0.79245283018867896</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -639,7 +684,7 @@
         <v>0.97983870967741904</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -662,262 +707,155 @@
         <v>0.98785425101214597</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="1" t="s">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B12" s="3">
         <v>0.8458</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C12" s="3">
         <v>0.82779999999999998</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D12" s="3">
         <v>0.72729999999999995</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E12" s="3">
         <v>0.92830000000000001</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F12" s="3">
         <v>0.87590000000000001</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G12" s="4">
         <v>0.83020000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B13" s="3">
         <v>0.82587064676616895</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.81917913310318402</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C13" s="3">
+        <v>0.8841</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.79754601226993904</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E13" s="3">
         <v>0.97071129707113002</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F13" s="3">
         <v>0.94890510948905105</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G13" s="4">
         <v>0.87547169811320802</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B14" s="3">
         <v>0.77363184079601999</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C14" s="3">
         <v>0.74541618718833902</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D14" s="3">
         <v>0.78333333333333299</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E14" s="3">
         <v>0.84751773049645396</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F14" s="3">
         <v>0.68613138686131403</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G14" s="4">
         <v>0.90188679245282999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B15" s="3">
         <v>0.71393034825870705</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C15" s="3">
         <v>0.67176831607211396</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D15" s="3">
         <v>0.75531914893617003</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E15" s="3">
         <v>0.78571428571428603</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F15" s="3">
         <v>0.51824817518248201</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G15" s="4">
         <v>0.91320754716981101</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
